--- a/Feature-Analysis/Resize Feature/s_17_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_17_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.56017361116</v>
+        <v>738157.56017361116</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.56061342591</v>
+        <v>738157.56061342591</v>
       </c>
       <c r="C3" s="0">
         <v>37.999995052814484</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.56096064812</v>
+        <v>738157.56096064812</v>
       </c>
       <c r="C4" s="0">
         <v>67.99999326467514</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.56165509264</v>
+        <v>738157.56165509264</v>
       </c>
       <c r="C5" s="0">
         <v>127.99999974668026</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.56199074071</v>
+        <v>738157.56199074071</v>
       </c>
       <c r="C6" s="0">
         <v>156.99999332427979</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.56234953704</v>
+        <v>738157.56234953704</v>
       </c>
       <c r="C7" s="0">
         <v>187.99999617040157</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.5626736111</v>
+        <v>738157.5626736111</v>
       </c>
       <c r="C8" s="0">
         <v>215.99999517202377</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.56303240743</v>
+        <v>738157.56303240743</v>
       </c>
       <c r="C9" s="0">
         <v>246.99999801814556</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.56337962963</v>
+        <v>738157.56337962963</v>
       </c>
       <c r="C10" s="0">
         <v>276.99999623000622</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.56372685183</v>
+        <v>738157.56372685183</v>
       </c>
       <c r="C11" s="0">
         <v>306.99999444186687</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.56406250002</v>
+        <v>738157.56406250002</v>
       </c>
       <c r="C12" s="0">
         <v>335.99999807775021</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.56443287036</v>
+        <v>738157.56443287036</v>
       </c>
       <c r="C13" s="0">
         <v>367.99999549984932</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.56478009257</v>
+        <v>738157.56478009257</v>
       </c>
       <c r="C14" s="0">
         <v>397.99999371170998</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.56510416663</v>
+        <v>738157.56510416663</v>
       </c>
       <c r="C15" s="0">
         <v>425.99999271333218</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.56582175929</v>
+        <v>738157.56582175929</v>
       </c>
       <c r="C16" s="0">
         <v>487.99999840557575</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.56615740736</v>
+        <v>738157.56615740736</v>
       </c>
       <c r="C17" s="0">
         <v>516.99999198317528</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.56651620369</v>
+        <v>738157.56651620369</v>
       </c>
       <c r="C18" s="0">
         <v>547.99999482929707</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.56686342589</v>
+        <v>738157.56686342589</v>
       </c>
       <c r="C19" s="0">
         <v>577.99999304115772</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.56721064809</v>
+        <v>738157.56721064809</v>
       </c>
       <c r="C20" s="0">
         <v>607.99999125301838</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.56755787041</v>
+        <v>738157.56755787041</v>
       </c>
       <c r="C21" s="0">
         <v>637.99999952316284</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.56802083331</v>
+        <v>738157.56802083331</v>
       </c>
       <c r="C22" s="0">
         <v>677.99999378621578</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.5683564815</v>
+        <v>738157.5683564815</v>
       </c>
       <c r="C23" s="0">
         <v>706.99999742209911</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.56869212957</v>
+        <v>738157.56869212957</v>
       </c>
       <c r="C24" s="0">
         <v>735.99999099969864</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.56903935189</v>
+        <v>738157.56903935189</v>
       </c>
       <c r="C25" s="0">
         <v>765.9999992698431</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.56942129624</v>
+        <v>738157.56942129624</v>
       </c>
       <c r="C26" s="0">
         <v>798.99999126791954</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.56974537042</v>
+        <v>738157.56974537042</v>
       </c>
       <c r="C27" s="0">
         <v>827.00000032782555</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.57008101849</v>
+        <v>738157.57008101849</v>
       </c>
       <c r="C28" s="0">
         <v>855.99999390542507</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.57043981482</v>
+        <v>738157.57043981482</v>
       </c>
       <c r="C29" s="0">
         <v>886.99999675154686</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.57079861115</v>
+        <v>738157.57079861115</v>
       </c>
       <c r="C30" s="0">
         <v>917.99999959766865</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.57148148143</v>
+        <v>738157.57148148143</v>
       </c>
       <c r="C31" s="0">
         <v>976.99999138712883</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.57182870375</v>
+        <v>738157.57182870375</v>
       </c>
       <c r="C32" s="0">
         <v>1006.9999996572733</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.57210648153</v>
+        <v>738157.57210648153</v>
       </c>
       <c r="C33" s="0">
         <v>1031.0000002384186</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.57251157402</v>
+        <v>738157.57251157402</v>
       </c>
       <c r="C34" s="0">
         <v>1065.9999914467335</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.57288194448</v>
+        <v>738157.57288194448</v>
       </c>
       <c r="C35" s="0">
         <v>1097.9999989271164</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.57325231482</v>
+        <v>738157.57325231482</v>
       </c>
       <c r="C36" s="0">
         <v>1129.9999963492155</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.57357638888</v>
+        <v>738157.57357638888</v>
       </c>
       <c r="C37" s="0">
         <v>1157.9999953508377</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.57391203707</v>
+        <v>738157.57391203707</v>
       </c>
       <c r="C38" s="0">
         <v>1186.999998986721</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.57424768514</v>
+        <v>738157.57424768514</v>
       </c>
       <c r="C39" s="0">
         <v>1215.9999925643206</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.5746180556</v>
+        <v>738157.5746180556</v>
       </c>
       <c r="C40" s="0">
         <v>1248.0000000447035</v>
